--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.3972856087949</v>
+        <v>154.6407382225369</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.8376100739092</v>
+        <v>211.586280303859</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.7239855335762</v>
+        <v>191.3927826749287</v>
       </c>
       <c r="AD2" t="n">
-        <v>123397.2856087949</v>
+        <v>154640.7382225369</v>
       </c>
       <c r="AE2" t="n">
-        <v>168837.6100739092</v>
+        <v>211586.280303859</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.540475006505501e-06</v>
+        <v>5.9853486634174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.721450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>152723.9855335762</v>
+        <v>191392.7826749287</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.23982409718691</v>
+        <v>107.9835411603277</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.3653760791305</v>
+        <v>147.7478449131144</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.9733121165269</v>
+        <v>133.6469979600496</v>
       </c>
       <c r="AD3" t="n">
-        <v>87239.82409718691</v>
+        <v>107983.5411603277</v>
       </c>
       <c r="AE3" t="n">
-        <v>119365.3760791305</v>
+        <v>147747.8449131144</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.768512611114605e-06</v>
+        <v>8.061407164569819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.247685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>107973.3121165269</v>
+        <v>133646.9979600497</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.52395834320501</v>
+        <v>91.35292675236639</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.49399110259365</v>
+        <v>124.9931045892268</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.28474002195304</v>
+        <v>113.063938116188</v>
       </c>
       <c r="AD4" t="n">
-        <v>70523.95834320501</v>
+        <v>91352.92675236639</v>
       </c>
       <c r="AE4" t="n">
-        <v>96493.99110259366</v>
+        <v>124993.1045892268</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.17111861876689e-06</v>
+        <v>8.742032596286639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.919753086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>87284.74002195304</v>
+        <v>113063.938116188</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.00800888340557</v>
+        <v>89.83697729256694</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.41980217272699</v>
+        <v>122.9189156593602</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.40850877240976</v>
+        <v>111.1877068666447</v>
       </c>
       <c r="AD5" t="n">
-        <v>69008.00888340556</v>
+        <v>89836.97729256694</v>
       </c>
       <c r="AE5" t="n">
-        <v>94419.802172727</v>
+        <v>122918.9156593602</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.28308783456583e-06</v>
+        <v>8.931322111081871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.834876543209876</v>
       </c>
       <c r="AH5" t="n">
-        <v>85408.50877240975</v>
+        <v>111187.7068666447</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7682008782516</v>
+        <v>124.9494260745227</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.3484744883782</v>
+        <v>170.9613171347216</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.6674972740937</v>
+        <v>154.6450089731468</v>
       </c>
       <c r="AD2" t="n">
-        <v>104768.2008782516</v>
+        <v>124949.4260745227</v>
       </c>
       <c r="AE2" t="n">
-        <v>143348.4744883782</v>
+        <v>170961.3171347216</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.190655024980944e-06</v>
+        <v>7.257338687725843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>129667.4972740937</v>
+        <v>154645.0089731468</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.72742749666274</v>
+        <v>87.90856318438274</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.6676542241228</v>
+        <v>120.2803744009177</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.82358336486469</v>
+        <v>108.8009842826913</v>
       </c>
       <c r="AD3" t="n">
-        <v>67727.42749666274</v>
+        <v>87908.56318438274</v>
       </c>
       <c r="AE3" t="n">
-        <v>92667.6542241228</v>
+        <v>120280.3744009177</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.303595728000815e-06</v>
+        <v>9.184719389077566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.950617283950618</v>
       </c>
       <c r="AH3" t="n">
-        <v>83823.58336486469</v>
+        <v>108800.9842826913</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.29900470541835</v>
+        <v>85.48014039313834</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.3449790266915</v>
+        <v>116.9576992034864</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.81801962487125</v>
+        <v>105.7954205426978</v>
       </c>
       <c r="AD4" t="n">
-        <v>65299.00470541835</v>
+        <v>85480.14039313834</v>
       </c>
       <c r="AE4" t="n">
-        <v>89344.97902669151</v>
+        <v>116957.6992034864</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.493368824200395e-06</v>
+        <v>9.513366730538224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.815586419753087</v>
       </c>
       <c r="AH4" t="n">
-        <v>80818.01962487126</v>
+        <v>105795.4205426978</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.67273878514954</v>
+        <v>83.84815391415204</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.54214143059212</v>
+        <v>114.7247433047764</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.14162828355323</v>
+        <v>103.7755748209867</v>
       </c>
       <c r="AD2" t="n">
-        <v>56672.73878514954</v>
+        <v>83848.15391415203</v>
       </c>
       <c r="AE2" t="n">
-        <v>77542.14143059212</v>
+        <v>114724.7433047764</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.852990819376809e-06</v>
+        <v>1.107511813371385e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.996913580246913</v>
       </c>
       <c r="AH2" t="n">
-        <v>70141.62828355323</v>
+        <v>103775.5748209867</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.42438167621488</v>
+        <v>91.33239188813896</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.0942341475767</v>
+        <v>124.9650078820566</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.63681952018777</v>
+        <v>113.0385229193161</v>
       </c>
       <c r="AD2" t="n">
-        <v>72424.38167621488</v>
+        <v>91332.39188813895</v>
       </c>
       <c r="AE2" t="n">
-        <v>99094.2341475767</v>
+        <v>124965.0078820566</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.450840476794547e-06</v>
+        <v>9.930247563637899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.104938271604939</v>
       </c>
       <c r="AH2" t="n">
-        <v>89636.81952018777</v>
+        <v>113038.5229193161</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.66786411125008</v>
+        <v>78.66112566919473</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.64020403736453</v>
+        <v>107.6276224244937</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.84857754680357</v>
+        <v>97.35579319664416</v>
       </c>
       <c r="AD3" t="n">
-        <v>59667.86411125008</v>
+        <v>78661.12566919473</v>
       </c>
       <c r="AE3" t="n">
-        <v>81640.20403736453</v>
+        <v>107627.6224244937</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.789890468041458e-06</v>
+        <v>1.054792301458249e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>73848.57754680357</v>
+        <v>97355.79319664415</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.66733791578701</v>
+        <v>81.18738650390083</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.11246054106066</v>
+        <v>111.084163949299</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.79856957014891</v>
+        <v>100.4824472496097</v>
       </c>
       <c r="AD2" t="n">
-        <v>63667.33791578701</v>
+        <v>81187.38650390082</v>
       </c>
       <c r="AE2" t="n">
-        <v>87112.46054106066</v>
+        <v>111084.163949299</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.770682648032015e-06</v>
+        <v>1.130867867349478e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.209104938271604</v>
       </c>
       <c r="AH2" t="n">
-        <v>78798.56957014892</v>
+        <v>100482.4472496097</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.077727499008</v>
+        <v>129.429229987591</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.2449589337905</v>
+        <v>177.0907824835788</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.0012295198056</v>
+        <v>160.1894867518697</v>
       </c>
       <c r="AD2" t="n">
-        <v>109077.727499008</v>
+        <v>129429.229987591</v>
       </c>
       <c r="AE2" t="n">
-        <v>149244.9589337904</v>
+        <v>177090.7824835788</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.016253248049351e-06</v>
+        <v>6.909888236983564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>135001.2295198056</v>
+        <v>160189.4867518697</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.54516463046332</v>
+        <v>100.8113262644746</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.2054476492328</v>
+        <v>137.9345040768235</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.68759439993545</v>
+        <v>124.7702286000608</v>
       </c>
       <c r="AD3" t="n">
-        <v>80545.16463046332</v>
+        <v>100811.3262644746</v>
       </c>
       <c r="AE3" t="n">
-        <v>110205.4476492328</v>
+        <v>137934.5040768235</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.139171683061783e-06</v>
+        <v>8.841848301741176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.043209876543211</v>
       </c>
       <c r="AH3" t="n">
-        <v>99687.59439993545</v>
+        <v>124770.2286000608</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.20291347661629</v>
+        <v>86.55432645664818</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.58174688508447</v>
+        <v>118.4274479653244</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.93675209467419</v>
+        <v>107.1248985455118</v>
       </c>
       <c r="AD4" t="n">
-        <v>66202.91347661629</v>
+        <v>86554.32645664818</v>
       </c>
       <c r="AE4" t="n">
-        <v>90581.74688508447</v>
+        <v>118427.4479653244</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.445099116305964e-06</v>
+        <v>9.368190701432045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.815586419753087</v>
       </c>
       <c r="AH4" t="n">
-        <v>81936.75209467419</v>
+        <v>107124.8985455118</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.70737525608038</v>
+        <v>79.85707487590213</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.79899727948711</v>
+        <v>109.2639728906651</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.61046139880227</v>
+        <v>98.83597267095706</v>
       </c>
       <c r="AD2" t="n">
-        <v>62707.37525608038</v>
+        <v>79857.07487590212</v>
       </c>
       <c r="AE2" t="n">
-        <v>85798.99727948711</v>
+        <v>109263.9728906651</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.631053404849779e-06</v>
+        <v>1.128834963925539e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.41358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>77610.46139880228</v>
+        <v>98835.97267095707</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.25881062769589</v>
+        <v>102.9726549708972</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.9183778202568</v>
+        <v>140.8917293640423</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.0461677265683</v>
+        <v>127.4452204563602</v>
       </c>
       <c r="AD2" t="n">
-        <v>83258.8106276959</v>
+        <v>102972.6549708972</v>
       </c>
       <c r="AE2" t="n">
-        <v>113918.3778202567</v>
+        <v>140891.7293640423</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.748018770669287e-06</v>
+        <v>8.409094053410686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>103046.1677265683</v>
+        <v>127445.2204563602</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.52643157576713</v>
+        <v>82.15493506439677</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.55142215341085</v>
+        <v>112.4080065749988</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.38651449528479</v>
+        <v>101.6799441931379</v>
       </c>
       <c r="AD3" t="n">
-        <v>62526.43157576713</v>
+        <v>82154.93506439676</v>
       </c>
       <c r="AE3" t="n">
-        <v>85551.42215341085</v>
+        <v>112408.0065749988</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.645430255088069e-06</v>
+        <v>9.998476476181667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>77386.51449528479</v>
+        <v>101679.9441931379</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.70686666401377</v>
+        <v>120.6281008909187</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.1091366741837</v>
+        <v>165.0486893751053</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.2643348582995</v>
+        <v>149.2966741084813</v>
       </c>
       <c r="AD2" t="n">
-        <v>90706.86666401377</v>
+        <v>120628.1008909187</v>
       </c>
       <c r="AE2" t="n">
-        <v>124109.1366741837</v>
+        <v>165048.6893751053</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.36389888686362e-06</v>
+        <v>7.610258606511453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>112264.3348582995</v>
+        <v>149296.6741084814</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.25303069498163</v>
+        <v>85.25741408263265</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.28207535738184</v>
+        <v>116.6529552394614</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.76111939347463</v>
+        <v>105.5197609148884</v>
       </c>
       <c r="AD3" t="n">
-        <v>65253.03069498164</v>
+        <v>85257.41408263265</v>
       </c>
       <c r="AE3" t="n">
-        <v>89282.07535738184</v>
+        <v>116652.9552394614</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.471779761028098e-06</v>
+        <v>9.542306111777849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.86574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>80761.11939347463</v>
+        <v>105519.7609148884</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.53950399991571</v>
+        <v>84.54388738756671</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.305796654617</v>
+        <v>115.6766765366965</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.87801535988558</v>
+        <v>104.6366568812993</v>
       </c>
       <c r="AD4" t="n">
-        <v>64539.50399991572</v>
+        <v>84543.88738756672</v>
       </c>
       <c r="AE4" t="n">
-        <v>88305.79665461699</v>
+        <v>115676.6765366965</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.526954422385003e-06</v>
+        <v>9.63852590337676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>79878.01535988558</v>
+        <v>104636.6568812993</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0400521641016</v>
+        <v>149.0523281356492</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5076069304243</v>
+        <v>203.9399710797302</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0935476023792</v>
+        <v>184.4762264714859</v>
       </c>
       <c r="AD2" t="n">
-        <v>118040.0521641016</v>
+        <v>149052.3281356492</v>
       </c>
       <c r="AE2" t="n">
-        <v>161507.6069304243</v>
+        <v>203939.9710797302</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.704564245082593e-06</v>
+        <v>6.297513691537346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.513117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>146093.5476023792</v>
+        <v>184476.2264714859</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.17253162531422</v>
+        <v>105.7621309269921</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.5368153166086</v>
+        <v>144.7084134301633</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.4147052232693</v>
+        <v>130.8976455519615</v>
       </c>
       <c r="AD3" t="n">
-        <v>85172.53162531422</v>
+        <v>105762.1309269921</v>
       </c>
       <c r="AE3" t="n">
-        <v>116536.8153166086</v>
+        <v>144708.4134301633</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.876246041570298e-06</v>
+        <v>8.289295090739909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.189814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>105414.7052232693</v>
+        <v>130897.6455519615</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.51680398301242</v>
+        <v>89.19165463071087</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.74771395757865</v>
+        <v>122.0359567237826</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.80056371323322</v>
+        <v>110.3890162926377</v>
       </c>
       <c r="AD4" t="n">
-        <v>68516.80398301242</v>
+        <v>89191.65463071087</v>
       </c>
       <c r="AE4" t="n">
-        <v>93747.71395757866</v>
+        <v>122035.9567237826</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.29059355076965e-06</v>
+        <v>8.993658394926347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.861882716049382</v>
       </c>
       <c r="AH4" t="n">
-        <v>84800.56371323322</v>
+        <v>110389.0162926377</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.15808269647161</v>
+        <v>88.83293334417004</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.25689566766752</v>
+        <v>121.5451384338714</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.35658843204325</v>
+        <v>109.9450410114477</v>
       </c>
       <c r="AD5" t="n">
-        <v>68158.08269647161</v>
+        <v>88832.93334417004</v>
       </c>
       <c r="AE5" t="n">
-        <v>93256.89566766752</v>
+        <v>121545.1384338714</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.324156387211759e-06</v>
+        <v>9.050712992454673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.834876543209876</v>
       </c>
       <c r="AH5" t="n">
-        <v>84356.58843204325</v>
+        <v>109945.0410114477</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.99458870249499</v>
+        <v>95.12563007878214</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.9791489073485</v>
+        <v>130.1550837203503</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.0555248713094</v>
+        <v>117.7332652039219</v>
       </c>
       <c r="AD2" t="n">
-        <v>75994.58870249499</v>
+        <v>95125.63007878214</v>
       </c>
       <c r="AE2" t="n">
-        <v>103979.1489073485</v>
+        <v>130155.0837203503</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202388975357715e-06</v>
+        <v>9.381138415597782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.247685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>94055.5248713094</v>
+        <v>117733.2652039219</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.62993877473227</v>
+        <v>79.84623149703999</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.95655703567886</v>
+        <v>109.2491365013299</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.03929966247223</v>
+        <v>98.82255224579696</v>
       </c>
       <c r="AD3" t="n">
-        <v>60629.93877473228</v>
+        <v>79846.23149703999</v>
       </c>
       <c r="AE3" t="n">
-        <v>82956.55703567885</v>
+        <v>109249.1365013299</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.751389401586596e-06</v>
+        <v>1.037111609951773e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.842592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>75039.29966247223</v>
+        <v>98822.55224579695</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.86098657230628</v>
+        <v>76.36442757125852</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.16795447477178</v>
+        <v>104.4851787637298</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.61227601263982</v>
+        <v>94.51325994841524</v>
       </c>
       <c r="AD2" t="n">
-        <v>57860.98657230628</v>
+        <v>76364.42757125852</v>
       </c>
       <c r="AE2" t="n">
-        <v>79167.95447477177</v>
+        <v>104485.1787637298</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.820062949807918e-06</v>
+        <v>1.085837712348561e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.954475308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>71612.27601263982</v>
+        <v>94513.25994841525</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.8800259269778</v>
+        <v>76.38346692593004</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.19400495979039</v>
+        <v>104.5112292487484</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.63584027593036</v>
+        <v>94.53682421170578</v>
       </c>
       <c r="AD3" t="n">
-        <v>57880.0259269778</v>
+        <v>76383.46692593004</v>
       </c>
       <c r="AE3" t="n">
-        <v>79194.00495979039</v>
+        <v>104511.2292487484</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.837781216850015e-06</v>
+        <v>1.089143374627077e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.942901234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>71635.84027593036</v>
+        <v>94536.82421170578</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.92350225730956</v>
+        <v>82.77189620427414</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.83120001119049</v>
+        <v>113.2521600249831</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.35327495751612</v>
+        <v>102.4435328226328</v>
       </c>
       <c r="AD2" t="n">
-        <v>64923.50225730956</v>
+        <v>82771.89620427415</v>
       </c>
       <c r="AE2" t="n">
-        <v>88831.20001119049</v>
+        <v>113252.1600249831</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.813416952999239e-06</v>
+        <v>1.117941638309155e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>80353.27495751611</v>
+        <v>102443.5328226328</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.80256452785741</v>
+        <v>86.92342392359335</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.56099532370096</v>
+        <v>118.9324634030295</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.49061261212931</v>
+        <v>107.5817160186361</v>
       </c>
       <c r="AD2" t="n">
-        <v>61802.56452785741</v>
+        <v>86923.42392359335</v>
       </c>
       <c r="AE2" t="n">
-        <v>84560.99532370096</v>
+        <v>118932.4634030295</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.350937303685927e-06</v>
+        <v>1.103683965123717e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.776234567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>76490.61261212931</v>
+        <v>107581.7160186361</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.96876020978659</v>
+        <v>116.6140972657767</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.9944945098949</v>
+        <v>159.556552529847</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6378269637235</v>
+        <v>144.3286990954703</v>
       </c>
       <c r="AD2" t="n">
-        <v>86968.76020978659</v>
+        <v>116614.0972657767</v>
       </c>
       <c r="AE2" t="n">
-        <v>118994.4945098949</v>
+        <v>159556.552529847</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546721415134174e-06</v>
+        <v>7.988410168344063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.699074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>107637.8269637235</v>
+        <v>144328.6990954703</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.87852559080004</v>
+        <v>83.69897753117455</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.40141683495602</v>
+        <v>114.5206335963892</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.05994828090772</v>
+        <v>103.5909450566981</v>
       </c>
       <c r="AD3" t="n">
-        <v>63878.52559080004</v>
+        <v>83698.97753117455</v>
       </c>
       <c r="AE3" t="n">
-        <v>87401.41683495602</v>
+        <v>114520.6335963892</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.559251973329585e-06</v>
+        <v>9.767386417015026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.842592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>79059.94828090772</v>
+        <v>103590.9450566981</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.55488889547034</v>
+        <v>83.37534083584485</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.95860283056282</v>
+        <v>114.077819591996</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.65939582360031</v>
+        <v>103.1903925993907</v>
       </c>
       <c r="AD4" t="n">
-        <v>63554.88889547034</v>
+        <v>83375.34083584485</v>
       </c>
       <c r="AE4" t="n">
-        <v>86958.60283056283</v>
+        <v>114077.819591996</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.59337412573663e-06</v>
+        <v>9.827337692751188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.819444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>78659.39582360031</v>
+        <v>103190.3925993907</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.6474274455344</v>
+        <v>144.2505555621885</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.4974240015581</v>
+        <v>197.3699740054694</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.6569680968973</v>
+        <v>178.5332606969416</v>
       </c>
       <c r="AD2" t="n">
-        <v>113647.4274455344</v>
+        <v>144250.5555621885</v>
       </c>
       <c r="AE2" t="n">
-        <v>155497.4240015581</v>
+        <v>197369.9740054694</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.850729192349897e-06</v>
+        <v>6.584317784432622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>140656.9680968973</v>
+        <v>178533.2606969416</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.78431928601243</v>
+        <v>103.2148814848227</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.2691578334851</v>
+        <v>141.2231543666747</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.4589083841479</v>
+        <v>127.7450147218993</v>
       </c>
       <c r="AD3" t="n">
-        <v>82784.31928601244</v>
+        <v>103214.8814848227</v>
       </c>
       <c r="AE3" t="n">
-        <v>113269.1578334851</v>
+        <v>141223.1543666747</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.015342576307339e-06</v>
+        <v>8.575676883694486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.104938271604939</v>
       </c>
       <c r="AH3" t="n">
-        <v>102458.9083841479</v>
+        <v>127745.0147218993</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.22935291474637</v>
+        <v>87.74516645957721</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.98616660764543</v>
+        <v>120.0568077934842</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.20713597002984</v>
+        <v>108.5987545584934</v>
       </c>
       <c r="AD4" t="n">
-        <v>67229.35291474637</v>
+        <v>87745.1664595772</v>
       </c>
       <c r="AE4" t="n">
-        <v>91986.16660764543</v>
+        <v>120056.8077934842</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.382587057085927e-06</v>
+        <v>9.20362401922119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>83207.13597002983</v>
+        <v>108598.7545584934</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.36280034248752</v>
+        <v>87.87861388731835</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.16875526556576</v>
+        <v>120.2393964514045</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.37229862270311</v>
+        <v>108.7639172111667</v>
       </c>
       <c r="AD5" t="n">
-        <v>67362.80034248752</v>
+        <v>87878.61388731835</v>
       </c>
       <c r="AE5" t="n">
-        <v>92168.75526556576</v>
+        <v>120239.3964514045</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.381199214571358e-06</v>
+        <v>9.201250963185768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH5" t="n">
-        <v>83372.29862270311</v>
+        <v>108763.9172111667</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.77852025497768</v>
+        <v>94.1923056552191</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.47404982387407</v>
+        <v>128.8780680686644</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.36214050737755</v>
+        <v>116.5781261337298</v>
       </c>
       <c r="AD2" t="n">
-        <v>69778.52025497767</v>
+        <v>94192.3056552191</v>
       </c>
       <c r="AE2" t="n">
-        <v>95474.04982387407</v>
+        <v>128878.0680686644</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.728341628114171e-06</v>
+        <v>1.013501393810091e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.597993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>86362.14050737755</v>
+        <v>116578.1261337298</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.94056616938072</v>
+        <v>87.90461638547529</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.01332702406441</v>
+        <v>120.2749742165321</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.18609019933434</v>
+        <v>108.7960994843242</v>
       </c>
       <c r="AD2" t="n">
-        <v>59940.56616938072</v>
+        <v>87904.6163854753</v>
       </c>
       <c r="AE2" t="n">
-        <v>82013.32702406441</v>
+        <v>120274.9742165321</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.671798583444942e-06</v>
+        <v>1.044990624269589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.996913580246913</v>
       </c>
       <c r="AH2" t="n">
-        <v>74186.09019933434</v>
+        <v>108796.0994843242</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.8596142973766</v>
+        <v>77.61610224753514</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.53432098455818</v>
+        <v>106.1977752758001</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.8482384204401</v>
+        <v>96.06240865301839</v>
       </c>
       <c r="AD3" t="n">
-        <v>58859.6142973766</v>
+        <v>77616.10224753513</v>
       </c>
       <c r="AE3" t="n">
-        <v>80534.32098455817</v>
+        <v>106197.7752758001</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.808950772990616e-06</v>
+        <v>1.07025998989756e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.904320987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>72848.2384204401</v>
+        <v>96062.4086530184</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.34977380529386</v>
+        <v>98.69205094107778</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.5698611853156</v>
+        <v>135.0348180835247</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.20810601257394</v>
+        <v>122.1472845682267</v>
       </c>
       <c r="AD2" t="n">
-        <v>79349.77380529387</v>
+        <v>98692.05094107777</v>
       </c>
       <c r="AE2" t="n">
-        <v>108569.8611853156</v>
+        <v>135034.8180835247</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.985228418767032e-06</v>
+        <v>8.905746756729029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.378858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>98208.10601257393</v>
+        <v>122147.2845682267</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.50998425556072</v>
+        <v>80.93751273736522</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.16067408741422</v>
+        <v>110.7422756382726</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.12849747277924</v>
+        <v>100.1731882791442</v>
       </c>
       <c r="AD3" t="n">
-        <v>61509.98425556072</v>
+        <v>80937.51273736522</v>
       </c>
       <c r="AE3" t="n">
-        <v>84160.67408741423</v>
+        <v>110742.2756382726</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.695786759887417e-06</v>
+        <v>1.017510737781461e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.834876543209876</v>
       </c>
       <c r="AH3" t="n">
-        <v>76128.49747277924</v>
+        <v>100173.1882791442</v>
       </c>
     </row>
   </sheetData>
